--- a/companies.xlsx
+++ b/companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12828a12671e41ba/Documents/stock-trading-game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{3793D271-005C-479F-BB26-E54566DD90AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52E9709F-693C-4154-B6AC-7EA656A0448A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CA2AAD0-94AB-48AD-9A5D-328D6DFB9380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2DA96F4-93EC-43B3-A4E2-590C9C6B0D01}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A2DA96F4-93EC-43B3-A4E2-590C9C6B0D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CompanyName</t>
   </si>
@@ -57,10 +57,49 @@
     <t>Round 5 Price</t>
   </si>
   <si>
-    <t>zium</t>
-  </si>
-  <si>
-    <t>ehie</t>
+    <t>MCWANN INFRA</t>
+  </si>
+  <si>
+    <t>RUPANI CEMENT</t>
+  </si>
+  <si>
+    <t>FIFADRA DEVELOPERS</t>
+  </si>
+  <si>
+    <t>ROHIT ENTERPRISE</t>
+  </si>
+  <si>
+    <t>NIMESH WATER PUMP</t>
+  </si>
+  <si>
+    <t>AMITA INSURANCE</t>
+  </si>
+  <si>
+    <t>CHARMACY</t>
+  </si>
+  <si>
+    <t>9A LAB</t>
+  </si>
+  <si>
+    <t>ZIUM LIFE SCIENCES</t>
+  </si>
+  <si>
+    <t>GHELANI OIL CORP</t>
+  </si>
+  <si>
+    <t>VINOD PETROLEUM</t>
+  </si>
+  <si>
+    <t>VIVA GAS</t>
+  </si>
+  <si>
+    <t>DOSHI PANTH PEDHI BANK</t>
+  </si>
+  <si>
+    <t>HITEN CHIT FUND</t>
+  </si>
+  <si>
+    <t>SUNITA SAHAKARI BANK</t>
   </si>
 </sst>
 </file>
@@ -415,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C14A165-A8B8-4D6C-AE02-DFB58930B9EF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -469,7 +508,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -490,6 +529,305 @@
       </c>
       <c r="G3">
         <v>23233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>313</v>
+      </c>
+      <c r="C4">
+        <v>1134</v>
+      </c>
+      <c r="D4">
+        <v>3233</v>
+      </c>
+      <c r="E4">
+        <v>234</v>
+      </c>
+      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="G4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>313</v>
+      </c>
+      <c r="C5">
+        <v>1134</v>
+      </c>
+      <c r="D5">
+        <v>3233</v>
+      </c>
+      <c r="E5">
+        <v>234</v>
+      </c>
+      <c r="F5">
+        <v>66</v>
+      </c>
+      <c r="G5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>313</v>
+      </c>
+      <c r="C6">
+        <v>1134</v>
+      </c>
+      <c r="D6">
+        <v>3233</v>
+      </c>
+      <c r="E6">
+        <v>234</v>
+      </c>
+      <c r="F6">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>313</v>
+      </c>
+      <c r="C7">
+        <v>1134</v>
+      </c>
+      <c r="D7">
+        <v>3233</v>
+      </c>
+      <c r="E7">
+        <v>234</v>
+      </c>
+      <c r="F7">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>313</v>
+      </c>
+      <c r="C8">
+        <v>1134</v>
+      </c>
+      <c r="D8">
+        <v>3233</v>
+      </c>
+      <c r="E8">
+        <v>234</v>
+      </c>
+      <c r="F8">
+        <v>66</v>
+      </c>
+      <c r="G8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>313</v>
+      </c>
+      <c r="C9">
+        <v>1134</v>
+      </c>
+      <c r="D9">
+        <v>3233</v>
+      </c>
+      <c r="E9">
+        <v>234</v>
+      </c>
+      <c r="F9">
+        <v>66</v>
+      </c>
+      <c r="G9">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>313</v>
+      </c>
+      <c r="C10">
+        <v>1134</v>
+      </c>
+      <c r="D10">
+        <v>3233</v>
+      </c>
+      <c r="E10">
+        <v>234</v>
+      </c>
+      <c r="F10">
+        <v>66</v>
+      </c>
+      <c r="G10">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>313</v>
+      </c>
+      <c r="C11">
+        <v>1134</v>
+      </c>
+      <c r="D11">
+        <v>3233</v>
+      </c>
+      <c r="E11">
+        <v>234</v>
+      </c>
+      <c r="F11">
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>313</v>
+      </c>
+      <c r="C12">
+        <v>1134</v>
+      </c>
+      <c r="D12">
+        <v>3233</v>
+      </c>
+      <c r="E12">
+        <v>234</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>313</v>
+      </c>
+      <c r="C13">
+        <v>1134</v>
+      </c>
+      <c r="D13">
+        <v>3233</v>
+      </c>
+      <c r="E13">
+        <v>234</v>
+      </c>
+      <c r="F13">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>313</v>
+      </c>
+      <c r="C14">
+        <v>1134</v>
+      </c>
+      <c r="D14">
+        <v>3233</v>
+      </c>
+      <c r="E14">
+        <v>234</v>
+      </c>
+      <c r="F14">
+        <v>66</v>
+      </c>
+      <c r="G14">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>313</v>
+      </c>
+      <c r="C15">
+        <v>1134</v>
+      </c>
+      <c r="D15">
+        <v>3233</v>
+      </c>
+      <c r="E15">
+        <v>234</v>
+      </c>
+      <c r="F15">
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>313</v>
+      </c>
+      <c r="C16">
+        <v>1134</v>
+      </c>
+      <c r="D16">
+        <v>3233</v>
+      </c>
+      <c r="E16">
+        <v>234</v>
+      </c>
+      <c r="F16">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
